--- a/results/results2_graph.xlsx
+++ b/results/results2_graph.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-32540" yWindow="5340" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -107,68 +107,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Restricting</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> the Number of Partitions</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -622,11 +561,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-2070734944"/>
-        <c:axId val="-2068730080"/>
+        <c:axId val="-2077323008"/>
+        <c:axId val="-2088390688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070734944"/>
+        <c:axId val="-2077323008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068730080"/>
+        <c:crossAx val="-2088390688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068730080"/>
+        <c:axId val="-2088390688"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -840,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070734944"/>
+        <c:crossAx val="-2077323008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -861,12 +800,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1438,14 +1372,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1802,27 +1736,27 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>MIN(B2:B10)</f>
+        <f t="shared" ref="J2:O2" si="0">MIN(B2:B10)</f>
         <v>17</v>
       </c>
       <c r="K2">
-        <f>MIN(C2:C10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L2">
-        <f>MIN(D2:D10)</f>
+        <f t="shared" si="0"/>
         <v>1.015625</v>
       </c>
       <c r="M2">
-        <f>MIN(E2:E10)</f>
+        <f t="shared" si="0"/>
         <v>1.015625</v>
       </c>
       <c r="N2">
-        <f>MIN(F2:F10)</f>
+        <f t="shared" si="0"/>
         <v>1.015625</v>
       </c>
       <c r="O2">
-        <f>MIN(G2:G10)</f>
+        <f t="shared" si="0"/>
         <v>1.015625</v>
       </c>
     </row>
@@ -1852,27 +1786,27 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>QUARTILE(B2:B10, 1)</f>
+        <f t="shared" ref="J3:O3" si="1">QUARTILE(B2:B10, 1)</f>
         <v>28</v>
       </c>
       <c r="K3">
-        <f>QUARTILE(C2:C10, 1)</f>
+        <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
       <c r="L3">
-        <f>QUARTILE(D2:D10, 1)</f>
+        <f t="shared" si="1"/>
         <v>1.21875</v>
       </c>
       <c r="M3">
-        <f>QUARTILE(E2:E10, 1)</f>
+        <f t="shared" si="1"/>
         <v>1.015625</v>
       </c>
       <c r="N3">
-        <f>QUARTILE(F2:F10, 1)</f>
+        <f t="shared" si="1"/>
         <v>1.015625</v>
       </c>
       <c r="O3">
-        <f>QUARTILE(G2:G10, 1)</f>
+        <f t="shared" si="1"/>
         <v>1.015625</v>
       </c>
     </row>
@@ -1902,27 +1836,27 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <f>MEDIAN(B2:B10)</f>
+        <f t="shared" ref="J4:O4" si="2">MEDIAN(B2:B10)</f>
         <v>79</v>
       </c>
       <c r="K4">
-        <f>MEDIAN(C2:C10)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L4">
-        <f>MEDIAN(D2:D10)</f>
+        <f t="shared" si="2"/>
         <v>1.53125</v>
       </c>
       <c r="M4">
-        <f>MEDIAN(E2:E10)</f>
+        <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
       <c r="N4">
-        <f>MEDIAN(F2:F10)</f>
+        <f t="shared" si="2"/>
         <v>1.0625</v>
       </c>
       <c r="O4">
-        <f>MEDIAN(G2:G10)</f>
+        <f t="shared" si="2"/>
         <v>1.015625</v>
       </c>
     </row>
@@ -1952,27 +1886,27 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <f>QUARTILE(B2:B10,3)</f>
+        <f t="shared" ref="J5:O5" si="3">QUARTILE(B2:B10,3)</f>
         <v>117</v>
       </c>
       <c r="K5">
-        <f>QUARTILE(C2:C10,3)</f>
+        <f t="shared" si="3"/>
         <v>4.203125</v>
       </c>
       <c r="L5">
-        <f>QUARTILE(D2:D10,3)</f>
+        <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
       <c r="M5">
-        <f>QUARTILE(E2:E10,3)</f>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="N5">
-        <f>QUARTILE(F2:F10,3)</f>
+        <f t="shared" si="3"/>
         <v>1.109375</v>
       </c>
       <c r="O5">
-        <f>QUARTILE(G2:G10,3)</f>
+        <f t="shared" si="3"/>
         <v>1.015625</v>
       </c>
     </row>
@@ -2002,27 +1936,27 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <f>MAX(B2:B10)</f>
+        <f t="shared" ref="J6:O6" si="4">MAX(B2:B10)</f>
         <v>123</v>
       </c>
       <c r="K6">
-        <f>MAX(C2:C10)</f>
+        <f t="shared" si="4"/>
         <v>4.734375</v>
       </c>
       <c r="L6">
-        <f>MAX(D2:D10)</f>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="M6">
-        <f>MAX(E2:E10)</f>
+        <f t="shared" si="4"/>
         <v>1.40625</v>
       </c>
       <c r="N6">
-        <f>MAX(F2:F10)</f>
+        <f t="shared" si="4"/>
         <v>1.203125</v>
       </c>
       <c r="O6">
-        <f>MAX(G2:G10)</f>
+        <f t="shared" si="4"/>
         <v>1.078125</v>
       </c>
     </row>
